--- a/stick.xlsx
+++ b/stick.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5058,6 +5058,23 @@
         <v>6.13</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45923.83333333334</v>
+      </c>
+      <c r="B273" t="n">
+        <v>79</v>
+      </c>
+      <c r="C273" t="n">
+        <v>475</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stick.xlsx
+++ b/stick.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5075,6 +5075,23 @@
         <v>6.13</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>78</v>
+      </c>
+      <c r="C274" t="n">
+        <v>449</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E274" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stick.xlsx
+++ b/stick.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,492 +453,492 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45833.54166666666</v>
+        <v>45835.54166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>7.07</v>
+        <v>7.19</v>
       </c>
       <c r="C2" t="n">
-        <v>1039</v>
+        <v>905</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="E2" t="n">
-        <v>7.07</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45833.83333333334</v>
+        <v>45835.83333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>6.92</v>
+        <v>7.47</v>
       </c>
       <c r="C3" t="n">
-        <v>1068</v>
+        <v>881</v>
       </c>
       <c r="D3" t="n">
-        <v>7.2</v>
+        <v>7.47</v>
       </c>
       <c r="E3" t="n">
-        <v>6.92</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45833.99930555555</v>
+        <v>45835.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>6.92</v>
+        <v>7.84</v>
       </c>
       <c r="C4" t="n">
-        <v>1072</v>
+        <v>849</v>
       </c>
       <c r="D4" t="n">
-        <v>7.2</v>
+        <v>7.84</v>
       </c>
       <c r="E4" t="n">
-        <v>6.92</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45834.54166666666</v>
+        <v>45836.54166666666</v>
       </c>
       <c r="B5" t="n">
-        <v>6.92</v>
+        <v>8.42</v>
       </c>
       <c r="C5" t="n">
-        <v>1021</v>
+        <v>795</v>
       </c>
       <c r="D5" t="n">
-        <v>7.2</v>
+        <v>8.42</v>
       </c>
       <c r="E5" t="n">
-        <v>6.92</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45834.83333333334</v>
+        <v>45836.83333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>6.88</v>
+        <v>8.41</v>
       </c>
       <c r="C6" t="n">
-        <v>1038</v>
+        <v>799</v>
       </c>
       <c r="D6" t="n">
-        <v>7.2</v>
+        <v>8.42</v>
       </c>
       <c r="E6" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45834.99930555555</v>
+        <v>45836.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>6.88</v>
+        <v>8.41</v>
       </c>
       <c r="C7" t="n">
-        <v>1038</v>
+        <v>799</v>
       </c>
       <c r="D7" t="n">
-        <v>7.2</v>
+        <v>8.42</v>
       </c>
       <c r="E7" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45835.54166666666</v>
+        <v>45837.54166666666</v>
       </c>
       <c r="B8" t="n">
-        <v>7.19</v>
+        <v>10.26</v>
       </c>
       <c r="C8" t="n">
-        <v>905</v>
+        <v>617</v>
       </c>
       <c r="D8" t="n">
-        <v>7.2</v>
+        <v>10.26</v>
       </c>
       <c r="E8" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45835.83333333334</v>
+        <v>45837.83333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>7.84</v>
+        <v>11.06</v>
       </c>
       <c r="C9" t="n">
-        <v>849</v>
+        <v>624</v>
       </c>
       <c r="D9" t="n">
-        <v>7.84</v>
+        <v>11.08</v>
       </c>
       <c r="E9" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45835.99930555555</v>
+        <v>45837.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>7.84</v>
+        <v>10.85</v>
       </c>
       <c r="C10" t="n">
-        <v>849</v>
+        <v>632</v>
       </c>
       <c r="D10" t="n">
-        <v>7.84</v>
+        <v>11.08</v>
       </c>
       <c r="E10" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45836.54166666666</v>
+        <v>45838.54166666666</v>
       </c>
       <c r="B11" t="n">
-        <v>8.42</v>
+        <v>10.28</v>
       </c>
       <c r="C11" t="n">
-        <v>795</v>
+        <v>638</v>
       </c>
       <c r="D11" t="n">
-        <v>8.42</v>
+        <v>11.08</v>
       </c>
       <c r="E11" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45836.83333333334</v>
+        <v>45838.83333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>8.41</v>
+        <v>10.28</v>
       </c>
       <c r="C12" t="n">
-        <v>799</v>
+        <v>638</v>
       </c>
       <c r="D12" t="n">
-        <v>8.42</v>
+        <v>11.08</v>
       </c>
       <c r="E12" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45836.99930555555</v>
+        <v>45838.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>8.41</v>
+        <v>10.28</v>
       </c>
       <c r="C13" t="n">
-        <v>799</v>
+        <v>638</v>
       </c>
       <c r="D13" t="n">
-        <v>8.42</v>
+        <v>11.08</v>
       </c>
       <c r="E13" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45837.54166666666</v>
+        <v>45839.54166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>10.26</v>
+        <v>12.89</v>
       </c>
       <c r="C14" t="n">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="D14" t="n">
-        <v>10.26</v>
+        <v>12.89</v>
       </c>
       <c r="E14" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45837.83333333334</v>
+        <v>45839.83333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>11.06</v>
+        <v>15.29</v>
       </c>
       <c r="C15" t="n">
-        <v>624</v>
+        <v>831</v>
       </c>
       <c r="D15" t="n">
-        <v>11.08</v>
+        <v>15.7</v>
       </c>
       <c r="E15" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45837.99930555555</v>
+        <v>45839.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>10.85</v>
+        <v>15.29</v>
       </c>
       <c r="C16" t="n">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="D16" t="n">
-        <v>11.08</v>
+        <v>15.7</v>
       </c>
       <c r="E16" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45838.54166666666</v>
+        <v>45840.54166666666</v>
       </c>
       <c r="B17" t="n">
-        <v>10.28</v>
+        <v>15.08</v>
       </c>
       <c r="C17" t="n">
-        <v>638</v>
+        <v>755</v>
       </c>
       <c r="D17" t="n">
-        <v>11.08</v>
+        <v>15.7</v>
       </c>
       <c r="E17" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45838.83333333334</v>
+        <v>45840.83333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>10.28</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="D18" t="n">
-        <v>11.08</v>
+        <v>15.7</v>
       </c>
       <c r="E18" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45838.99930555555</v>
+        <v>45840.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>10.28</v>
+        <v>15.59</v>
       </c>
       <c r="C19" t="n">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="D19" t="n">
-        <v>11.08</v>
+        <v>15.7</v>
       </c>
       <c r="E19" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45839.54166666666</v>
+        <v>45841.54166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>12.89</v>
+        <v>19.88</v>
       </c>
       <c r="C20" t="n">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="D20" t="n">
-        <v>12.89</v>
+        <v>19.88</v>
       </c>
       <c r="E20" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45839.83333333334</v>
+        <v>45841.83333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>15.29</v>
+        <v>19.59</v>
       </c>
       <c r="C21" t="n">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="D21" t="n">
-        <v>15.7</v>
+        <v>19.88</v>
       </c>
       <c r="E21" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45839.99930555555</v>
+        <v>45841.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>15.29</v>
+        <v>19.2</v>
       </c>
       <c r="C22" t="n">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="D22" t="n">
-        <v>15.7</v>
+        <v>19.88</v>
       </c>
       <c r="E22" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45840.54166666666</v>
+        <v>45842.54166666666</v>
       </c>
       <c r="B23" t="n">
-        <v>15.08</v>
+        <v>20.6</v>
       </c>
       <c r="C23" t="n">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D23" t="n">
-        <v>15.7</v>
+        <v>21.07</v>
       </c>
       <c r="E23" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45840.83333333334</v>
+        <v>45842.83333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>6.13</v>
       </c>
       <c r="C24" t="n">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="D24" t="n">
-        <v>15.7</v>
+        <v>21.07</v>
       </c>
       <c r="E24" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45840.99930555555</v>
+        <v>45842.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>15.59</v>
+        <v>19.53</v>
       </c>
       <c r="C25" t="n">
-        <v>681</v>
+        <v>815</v>
       </c>
       <c r="D25" t="n">
-        <v>15.7</v>
+        <v>21.07</v>
       </c>
       <c r="E25" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45841.54166666666</v>
+        <v>45843.54166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>19.88</v>
+        <v>18.4</v>
       </c>
       <c r="C26" t="n">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="D26" t="n">
-        <v>19.88</v>
+        <v>21.07</v>
       </c>
       <c r="E26" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45841.83333333334</v>
+        <v>45843.83333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>19.59</v>
+        <v>18.3</v>
       </c>
       <c r="C27" t="n">
-        <v>871</v>
+        <v>720</v>
       </c>
       <c r="D27" t="n">
-        <v>19.88</v>
+        <v>21.07</v>
       </c>
       <c r="E27" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45841.99930555555</v>
+        <v>45843.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="C28" t="n">
-        <v>807</v>
+        <v>720</v>
       </c>
       <c r="D28" t="n">
-        <v>19.88</v>
+        <v>21.07</v>
       </c>
       <c r="E28" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45842.54166666666</v>
+        <v>45844.54166666666</v>
       </c>
       <c r="B29" t="n">
-        <v>20.6</v>
+        <v>17.5</v>
       </c>
       <c r="C29" t="n">
-        <v>767</v>
+        <v>711</v>
       </c>
       <c r="D29" t="n">
         <v>21.07</v>
       </c>
       <c r="E29" t="n">
-        <v>6.87</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45842.83333333334</v>
+        <v>45844.83333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>6.13</v>
+        <v>27.79</v>
       </c>
       <c r="C30" t="n">
-        <v>836</v>
+        <v>508</v>
       </c>
       <c r="D30" t="n">
-        <v>21.07</v>
+        <v>27.79</v>
       </c>
       <c r="E30" t="n">
         <v>6.13</v>
@@ -946,16 +946,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45842.99930555555</v>
+        <v>45844.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>19.53</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>815</v>
+        <v>505</v>
       </c>
       <c r="D31" t="n">
-        <v>21.07</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
         <v>6.13</v>
@@ -963,16 +963,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45843.54166666666</v>
+        <v>45845.54166666666</v>
       </c>
       <c r="B32" t="n">
-        <v>18.4</v>
+        <v>26.4</v>
       </c>
       <c r="C32" t="n">
-        <v>715</v>
+        <v>546</v>
       </c>
       <c r="D32" t="n">
-        <v>21.07</v>
+        <v>28.45</v>
       </c>
       <c r="E32" t="n">
         <v>6.13</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45843.83333333334</v>
+        <v>45845.83333333334</v>
       </c>
       <c r="B33" t="n">
-        <v>18.3</v>
+        <v>25.42</v>
       </c>
       <c r="C33" t="n">
-        <v>720</v>
+        <v>553</v>
       </c>
       <c r="D33" t="n">
-        <v>21.07</v>
+        <v>28.45</v>
       </c>
       <c r="E33" t="n">
         <v>6.13</v>
@@ -997,16 +997,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45843.99930555555</v>
+        <v>45845.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>18.3</v>
+        <v>25.42</v>
       </c>
       <c r="C34" t="n">
-        <v>720</v>
+        <v>553</v>
       </c>
       <c r="D34" t="n">
-        <v>21.07</v>
+        <v>28.45</v>
       </c>
       <c r="E34" t="n">
         <v>6.13</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45844.54166666666</v>
+        <v>45846.54166666666</v>
       </c>
       <c r="B35" t="n">
-        <v>17.5</v>
+        <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>711</v>
+        <v>463</v>
       </c>
       <c r="D35" t="n">
-        <v>21.07</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>6.13</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45844.83333333334</v>
+        <v>45846.83333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>27.79</v>
+        <v>29.7</v>
       </c>
       <c r="C36" t="n">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="D36" t="n">
-        <v>27.79</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
         <v>6.13</v>
@@ -1048,16 +1048,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45844.99930555555</v>
+        <v>45846.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>31.59</v>
       </c>
       <c r="C37" t="n">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>31.59</v>
       </c>
       <c r="E37" t="n">
         <v>6.13</v>
@@ -1065,16 +1065,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45845.54166666666</v>
+        <v>45847.54166666666</v>
       </c>
       <c r="B38" t="n">
-        <v>26.4</v>
+        <v>30.9</v>
       </c>
       <c r="C38" t="n">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="D38" t="n">
-        <v>28.45</v>
+        <v>31.68</v>
       </c>
       <c r="E38" t="n">
         <v>6.13</v>
@@ -1082,16 +1082,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45845.83333333334</v>
+        <v>45847.83333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>25.42</v>
+        <v>29.33</v>
       </c>
       <c r="C39" t="n">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="D39" t="n">
-        <v>28.45</v>
+        <v>31.68</v>
       </c>
       <c r="E39" t="n">
         <v>6.13</v>
@@ -1099,16 +1099,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45845.99930555555</v>
+        <v>45847.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>25.42</v>
+        <v>28.9</v>
       </c>
       <c r="C40" t="n">
-        <v>553</v>
+        <v>642</v>
       </c>
       <c r="D40" t="n">
-        <v>28.45</v>
+        <v>31.68</v>
       </c>
       <c r="E40" t="n">
         <v>6.13</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45846.54166666666</v>
+        <v>45848.54166666666</v>
       </c>
       <c r="B41" t="n">
-        <v>31</v>
+        <v>43.4</v>
       </c>
       <c r="C41" t="n">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>43.4</v>
       </c>
       <c r="E41" t="n">
         <v>6.13</v>
@@ -1133,16 +1133,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45846.83333333334</v>
+        <v>45848.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.7</v>
+        <v>45.2</v>
       </c>
       <c r="C42" t="n">
-        <v>606</v>
+        <v>514</v>
       </c>
       <c r="D42" t="n">
-        <v>31</v>
+        <v>45.2</v>
       </c>
       <c r="E42" t="n">
         <v>6.13</v>
@@ -1150,16 +1150,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45846.99930555555</v>
+        <v>45848.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>31.59</v>
+        <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D43" t="n">
-        <v>31.59</v>
+        <v>46</v>
       </c>
       <c r="E43" t="n">
         <v>6.13</v>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45847.54166666666</v>
+        <v>45849.54166666666</v>
       </c>
       <c r="B44" t="n">
-        <v>30.9</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="D44" t="n">
-        <v>31.68</v>
+        <v>49.99</v>
       </c>
       <c r="E44" t="n">
         <v>6.13</v>
@@ -1184,16 +1184,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45847.83333333334</v>
+        <v>45849.83333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>29.33</v>
+        <v>38.69</v>
       </c>
       <c r="C45" t="n">
-        <v>636</v>
+        <v>509</v>
       </c>
       <c r="D45" t="n">
-        <v>31.68</v>
+        <v>49.99</v>
       </c>
       <c r="E45" t="n">
         <v>6.13</v>
@@ -1201,16 +1201,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45847.99930555555</v>
+        <v>45849.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>28.9</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>642</v>
+        <v>474</v>
       </c>
       <c r="D46" t="n">
-        <v>31.68</v>
+        <v>49.99</v>
       </c>
       <c r="E46" t="n">
         <v>6.13</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45848.54166666666</v>
+        <v>45850.54166666666</v>
       </c>
       <c r="B47" t="n">
-        <v>43.4</v>
+        <v>37.5</v>
       </c>
       <c r="C47" t="n">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="D47" t="n">
-        <v>43.4</v>
+        <v>49.99</v>
       </c>
       <c r="E47" t="n">
         <v>6.13</v>
@@ -1235,16 +1235,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45848.83333333334</v>
+        <v>45850.83333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>45.2</v>
+        <v>36</v>
       </c>
       <c r="C48" t="n">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="D48" t="n">
-        <v>45.2</v>
+        <v>49.99</v>
       </c>
       <c r="E48" t="n">
         <v>6.13</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45848.99930555555</v>
+        <v>45850.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>46</v>
+        <v>42.78</v>
       </c>
       <c r="C49" t="n">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="D49" t="n">
-        <v>46</v>
+        <v>49.99</v>
       </c>
       <c r="E49" t="n">
         <v>6.13</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45849.54166666666</v>
+        <v>45851.54166666666</v>
       </c>
       <c r="B50" t="n">
-        <v>35</v>
+        <v>43.9</v>
       </c>
       <c r="C50" t="n">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D50" t="n">
         <v>49.99</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45849.83333333334</v>
+        <v>45851.83333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>38.69</v>
+        <v>43.8</v>
       </c>
       <c r="C51" t="n">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="D51" t="n">
         <v>49.99</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45849.99930555555</v>
+        <v>45851.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>39</v>
+        <v>44.9</v>
       </c>
       <c r="C52" t="n">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="D52" t="n">
         <v>49.99</v>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45850.54166666666</v>
+        <v>45852.54166666666</v>
       </c>
       <c r="B53" t="n">
-        <v>37.5</v>
+        <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>543</v>
+        <v>268</v>
       </c>
       <c r="D53" t="n">
-        <v>49.99</v>
+        <v>58</v>
       </c>
       <c r="E53" t="n">
         <v>6.13</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45850.83333333334</v>
+        <v>45852.83333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>36</v>
+        <v>57.79</v>
       </c>
       <c r="C54" t="n">
-        <v>578</v>
+        <v>283</v>
       </c>
       <c r="D54" t="n">
-        <v>49.99</v>
+        <v>58</v>
       </c>
       <c r="E54" t="n">
         <v>6.13</v>
@@ -1354,16 +1354,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45850.99930555555</v>
+        <v>45852.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>42.78</v>
+        <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>497</v>
+        <v>279</v>
       </c>
       <c r="D55" t="n">
-        <v>49.99</v>
+        <v>58</v>
       </c>
       <c r="E55" t="n">
         <v>6.13</v>
@@ -1371,16 +1371,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45851.54166666666</v>
+        <v>45853.54166666666</v>
       </c>
       <c r="B56" t="n">
-        <v>43.9</v>
+        <v>62.9</v>
       </c>
       <c r="C56" t="n">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="D56" t="n">
-        <v>49.99</v>
+        <v>62.9</v>
       </c>
       <c r="E56" t="n">
         <v>6.13</v>
@@ -1388,16 +1388,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45851.83333333334</v>
+        <v>45853.83333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>43.8</v>
+        <v>63.6</v>
       </c>
       <c r="C57" t="n">
-        <v>390</v>
+        <v>193</v>
       </c>
       <c r="D57" t="n">
-        <v>49.99</v>
+        <v>63.98</v>
       </c>
       <c r="E57" t="n">
         <v>6.13</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45851.99930555555</v>
+        <v>45853.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>44.9</v>
+        <v>63.6</v>
       </c>
       <c r="C58" t="n">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="D58" t="n">
-        <v>49.99</v>
+        <v>63.98</v>
       </c>
       <c r="E58" t="n">
         <v>6.13</v>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45852.54166666666</v>
+        <v>45854.54166666666</v>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>62.3</v>
       </c>
       <c r="C59" t="n">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="D59" t="n">
-        <v>58</v>
+        <v>63.98</v>
       </c>
       <c r="E59" t="n">
         <v>6.13</v>
@@ -1439,16 +1439,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45852.83333333334</v>
+        <v>45854.83333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.79</v>
+        <v>57.58</v>
       </c>
       <c r="C60" t="n">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="D60" t="n">
-        <v>58</v>
+        <v>63.98</v>
       </c>
       <c r="E60" t="n">
         <v>6.13</v>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45852.99930555555</v>
+        <v>45854.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>57</v>
+        <v>57.58</v>
       </c>
       <c r="C61" t="n">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
-        <v>58</v>
+        <v>63.98</v>
       </c>
       <c r="E61" t="n">
         <v>6.13</v>
@@ -1473,16 +1473,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45853.54166666666</v>
+        <v>45855.54166666666</v>
       </c>
       <c r="B62" t="n">
-        <v>62.9</v>
+        <v>48</v>
       </c>
       <c r="C62" t="n">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="D62" t="n">
-        <v>62.9</v>
+        <v>63.98</v>
       </c>
       <c r="E62" t="n">
         <v>6.13</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45853.83333333334</v>
+        <v>45855.83333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>63.6</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D63" t="n">
         <v>63.98</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45853.99930555555</v>
+        <v>45855.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>63.6</v>
+        <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D64" t="n">
         <v>63.98</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45854.54166666666</v>
+        <v>45856.54166666666</v>
       </c>
       <c r="B65" t="n">
-        <v>62.3</v>
+        <v>48.9</v>
       </c>
       <c r="C65" t="n">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D65" t="n">
         <v>63.98</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45854.83333333334</v>
+        <v>45856.83333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.58</v>
+        <v>42.89</v>
       </c>
       <c r="C66" t="n">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="D66" t="n">
         <v>63.98</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45854.99930555555</v>
+        <v>45856.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>57.58</v>
+        <v>42.79</v>
       </c>
       <c r="C67" t="n">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="D67" t="n">
         <v>63.98</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45855.54166666666</v>
+        <v>45857.54166666666</v>
       </c>
       <c r="B68" t="n">
-        <v>48</v>
+        <v>45.9</v>
       </c>
       <c r="C68" t="n">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D68" t="n">
         <v>63.98</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45855.83333333334</v>
+        <v>45857.83333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>38.8</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="D69" t="n">
         <v>63.98</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45855.99930555555</v>
+        <v>45857.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>45</v>
+        <v>38.8</v>
       </c>
       <c r="C70" t="n">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="D70" t="n">
         <v>63.98</v>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45856.54166666666</v>
+        <v>45858.54166666666</v>
       </c>
       <c r="B71" t="n">
-        <v>48.9</v>
+        <v>36.79</v>
       </c>
       <c r="C71" t="n">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="D71" t="n">
         <v>63.98</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45856.83333333334</v>
+        <v>45858.83333333334</v>
       </c>
       <c r="B72" t="n">
-        <v>42.89</v>
+        <v>36.38</v>
       </c>
       <c r="C72" t="n">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="D72" t="n">
         <v>63.98</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45856.99930555555</v>
+        <v>45858.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>42.79</v>
+        <v>36.38</v>
       </c>
       <c r="C73" t="n">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="D73" t="n">
         <v>63.98</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45857.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
       <c r="B74" t="n">
-        <v>45.9</v>
+        <v>30.7</v>
       </c>
       <c r="C74" t="n">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="D74" t="n">
         <v>63.98</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45857.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>38.8</v>
+        <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="D75" t="n">
         <v>63.98</v>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45857.99930555555</v>
+        <v>45859.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>38.8</v>
+        <v>27</v>
       </c>
       <c r="C76" t="n">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="D76" t="n">
         <v>63.98</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45858.54166666666</v>
+        <v>45860.54166666666</v>
       </c>
       <c r="B77" t="n">
-        <v>36.79</v>
+        <v>26.5</v>
       </c>
       <c r="C77" t="n">
-        <v>284</v>
+        <v>438</v>
       </c>
       <c r="D77" t="n">
         <v>63.98</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45858.83333333334</v>
+        <v>45860.83333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.38</v>
+        <v>35.99</v>
       </c>
       <c r="C78" t="n">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D78" t="n">
         <v>63.98</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45858.99930555555</v>
+        <v>45860.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>36.38</v>
+        <v>35.99</v>
       </c>
       <c r="C79" t="n">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D79" t="n">
         <v>63.98</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45859.54166666666</v>
+        <v>45861.54166666666</v>
       </c>
       <c r="B80" t="n">
-        <v>30.7</v>
+        <v>38.9</v>
       </c>
       <c r="C80" t="n">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="D80" t="n">
         <v>63.98</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45859.83333333334</v>
+        <v>45861.83333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>31.8</v>
       </c>
       <c r="C81" t="n">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="D81" t="n">
         <v>63.98</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45859.99930555555</v>
+        <v>45861.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>27</v>
+        <v>31.8</v>
       </c>
       <c r="C82" t="n">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="D82" t="n">
         <v>63.98</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45860.54166666666</v>
+        <v>45862.54166666666</v>
       </c>
       <c r="B83" t="n">
-        <v>26.5</v>
+        <v>30.77</v>
       </c>
       <c r="C83" t="n">
-        <v>438</v>
+        <v>336</v>
       </c>
       <c r="D83" t="n">
         <v>63.98</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45860.83333333334</v>
+        <v>45862.83333333334</v>
       </c>
       <c r="B84" t="n">
-        <v>35.99</v>
+        <v>49.9</v>
       </c>
       <c r="C84" t="n">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="D84" t="n">
         <v>63.98</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45860.99930555555</v>
+        <v>45862.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>35.99</v>
+        <v>49.9</v>
       </c>
       <c r="C85" t="n">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="D85" t="n">
         <v>63.98</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45861.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
       <c r="B86" t="n">
-        <v>38.9</v>
+        <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="D86" t="n">
         <v>63.98</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45861.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>31.8</v>
+        <v>59</v>
       </c>
       <c r="C87" t="n">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="D87" t="n">
         <v>63.98</v>
@@ -1915,13 +1915,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45861.99930555555</v>
+        <v>45863.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>31.8</v>
+        <v>59</v>
       </c>
       <c r="C88" t="n">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="D88" t="n">
         <v>63.98</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45862.54166666666</v>
+        <v>45864.54166666666</v>
       </c>
       <c r="B89" t="n">
-        <v>30.77</v>
+        <v>62</v>
       </c>
       <c r="C89" t="n">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="D89" t="n">
         <v>63.98</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45862.83333333334</v>
+        <v>45864.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>49.9</v>
+        <v>62.88</v>
       </c>
       <c r="C90" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D90" t="n">
         <v>63.98</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45862.99930555555</v>
+        <v>45864.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>49.9</v>
+        <v>62.88</v>
       </c>
       <c r="C91" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
         <v>63.98</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45863.54166666666</v>
+        <v>45865.54166666666</v>
       </c>
       <c r="B92" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C92" t="n">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D92" t="n">
-        <v>63.98</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>6.13</v>
@@ -2000,16 +2000,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45863.83333333334</v>
+        <v>45865.83333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>63.98</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>6.13</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45863.99930555555</v>
+        <v>45865.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="D94" t="n">
-        <v>63.98</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>6.13</v>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45864.54166666666</v>
+        <v>45866.54166666666</v>
       </c>
       <c r="B95" t="n">
-        <v>62</v>
+        <v>64.88</v>
       </c>
       <c r="C95" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D95" t="n">
-        <v>63.98</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>6.13</v>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45864.83333333334</v>
+        <v>45866.83333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>62.88</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="D96" t="n">
-        <v>63.98</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>6.13</v>
@@ -2068,16 +2068,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45864.99930555555</v>
+        <v>45866.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>62.88</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="D97" t="n">
-        <v>63.98</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>6.13</v>
@@ -2085,16 +2085,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45865.54166666666</v>
+        <v>45867.54166666666</v>
       </c>
       <c r="B98" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C98" t="n">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="D98" t="n">
-        <v>64.98999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>6.13</v>
@@ -2102,16 +2102,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45865.83333333334</v>
+        <v>45867.83333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>66.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D99" t="n">
-        <v>66.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E99" t="n">
         <v>6.13</v>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45865.99930555555</v>
+        <v>45867.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>66.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D100" t="n">
-        <v>66.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E100" t="n">
         <v>6.13</v>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45866.54166666666</v>
+        <v>45868.54166666666</v>
       </c>
       <c r="B101" t="n">
-        <v>64.88</v>
+        <v>96.89</v>
       </c>
       <c r="C101" t="n">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="D101" t="n">
-        <v>66.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E101" t="n">
         <v>6.13</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45866.83333333334</v>
+        <v>45868.83333333334</v>
       </c>
       <c r="B102" t="n">
-        <v>68.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D102" t="n">
-        <v>68.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E102" t="n">
         <v>6.13</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45866.99930555555</v>
+        <v>45868.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>68.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D103" t="n">
-        <v>68.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E103" t="n">
         <v>6.13</v>
@@ -2187,16 +2187,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45867.54166666666</v>
+        <v>45869.54166666666</v>
       </c>
       <c r="B104" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C104" t="n">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
-        <v>68.90000000000001</v>
+        <v>120</v>
       </c>
       <c r="E104" t="n">
         <v>6.13</v>
@@ -2204,16 +2204,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45867.83333333334</v>
+        <v>45869.83333333334</v>
       </c>
       <c r="B105" t="n">
-        <v>98</v>
+        <v>135.5</v>
       </c>
       <c r="C105" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D105" t="n">
-        <v>98</v>
+        <v>135.5</v>
       </c>
       <c r="E105" t="n">
         <v>6.13</v>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45867.99930555555</v>
+        <v>45869.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>98</v>
+        <v>135.5</v>
       </c>
       <c r="C106" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D106" t="n">
-        <v>98</v>
+        <v>135.5</v>
       </c>
       <c r="E106" t="n">
         <v>6.13</v>
@@ -2238,16 +2238,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45868.54166666666</v>
+        <v>45870.54166666666</v>
       </c>
       <c r="B107" t="n">
-        <v>96.89</v>
+        <v>133</v>
       </c>
       <c r="C107" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D107" t="n">
-        <v>98</v>
+        <v>135.5</v>
       </c>
       <c r="E107" t="n">
         <v>6.13</v>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45868.83333333334</v>
+        <v>45870.83333333334</v>
       </c>
       <c r="B108" t="n">
-        <v>95.90000000000001</v>
+        <v>144</v>
       </c>
       <c r="C108" t="n">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="D108" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E108" t="n">
         <v>6.13</v>
@@ -2272,16 +2272,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45868.99930555555</v>
+        <v>45870.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>95.90000000000001</v>
+        <v>144</v>
       </c>
       <c r="C109" t="n">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="D109" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E109" t="n">
         <v>6.13</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45869.54166666666</v>
+        <v>45871.54166666666</v>
       </c>
       <c r="B110" t="n">
-        <v>120</v>
+        <v>142.5</v>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D110" t="n">
-        <v>120</v>
+        <v>144.5</v>
       </c>
       <c r="E110" t="n">
         <v>6.13</v>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45869.83333333334</v>
+        <v>45871.83333333334</v>
       </c>
       <c r="B111" t="n">
-        <v>135.5</v>
+        <v>188</v>
       </c>
       <c r="C111" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>135.5</v>
+        <v>188</v>
       </c>
       <c r="E111" t="n">
         <v>6.13</v>
@@ -2323,16 +2323,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45869.99930555555</v>
+        <v>45871.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>135.5</v>
+        <v>188</v>
       </c>
       <c r="C112" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D112" t="n">
-        <v>135.5</v>
+        <v>188</v>
       </c>
       <c r="E112" t="n">
         <v>6.13</v>
@@ -2340,16 +2340,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45870.54166666666</v>
+        <v>45872.54166666666</v>
       </c>
       <c r="B113" t="n">
-        <v>133</v>
+        <v>206.3</v>
       </c>
       <c r="C113" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D113" t="n">
-        <v>135.5</v>
+        <v>209.9</v>
       </c>
       <c r="E113" t="n">
         <v>6.13</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45870.83333333334</v>
+        <v>45872.83333333334</v>
       </c>
       <c r="B114" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C114" t="n">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D114" t="n">
-        <v>144</v>
+        <v>209.9</v>
       </c>
       <c r="E114" t="n">
         <v>6.13</v>
@@ -2374,16 +2374,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45870.99930555555</v>
+        <v>45872.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C115" t="n">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D115" t="n">
-        <v>144</v>
+        <v>209.9</v>
       </c>
       <c r="E115" t="n">
         <v>6.13</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45871.54166666666</v>
+        <v>45873.54166666666</v>
       </c>
       <c r="B116" t="n">
-        <v>142.5</v>
+        <v>165</v>
       </c>
       <c r="C116" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D116" t="n">
-        <v>144.5</v>
+        <v>209.9</v>
       </c>
       <c r="E116" t="n">
         <v>6.13</v>
@@ -2408,16 +2408,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45871.83333333334</v>
+        <v>45873.83333333334</v>
       </c>
       <c r="B117" t="n">
-        <v>188</v>
+        <v>175.5</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D117" t="n">
-        <v>188</v>
+        <v>209.9</v>
       </c>
       <c r="E117" t="n">
         <v>6.13</v>
@@ -2425,16 +2425,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45871.99930555555</v>
+        <v>45873.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>188</v>
+        <v>175.5</v>
       </c>
       <c r="C118" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D118" t="n">
-        <v>188</v>
+        <v>209.9</v>
       </c>
       <c r="E118" t="n">
         <v>6.13</v>
@@ -2442,13 +2442,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45872.54166666666</v>
+        <v>45874.54166666666</v>
       </c>
       <c r="B119" t="n">
-        <v>206.3</v>
+        <v>168</v>
       </c>
       <c r="C119" t="n">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="D119" t="n">
         <v>209.9</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45872.83333333334</v>
+        <v>45874.83333333334</v>
       </c>
       <c r="B120" t="n">
-        <v>185</v>
+        <v>168.9</v>
       </c>
       <c r="C120" t="n">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D120" t="n">
         <v>209.9</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45872.99930555555</v>
+        <v>45874.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C121" t="n">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D121" t="n">
         <v>209.9</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45873.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
       <c r="B122" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C122" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D122" t="n">
         <v>209.9</v>
@@ -2510,13 +2510,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45873.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
       <c r="B123" t="n">
-        <v>175.5</v>
+        <v>170</v>
       </c>
       <c r="C123" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D123" t="n">
         <v>209.9</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45873.99930555555</v>
+        <v>45875.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>175.5</v>
+        <v>170</v>
       </c>
       <c r="C124" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D124" t="n">
         <v>209.9</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45874.54166666666</v>
+        <v>45876.54166666666</v>
       </c>
       <c r="B125" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C125" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D125" t="n">
         <v>209.9</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45874.83333333334</v>
+        <v>45876.83333333334</v>
       </c>
       <c r="B126" t="n">
-        <v>168.9</v>
+        <v>174.5</v>
       </c>
       <c r="C126" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D126" t="n">
         <v>209.9</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45874.99930555555</v>
+        <v>45876.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>172</v>
+        <v>174.5</v>
       </c>
       <c r="C127" t="n">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="D127" t="n">
         <v>209.9</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45875.54166666666</v>
+        <v>45877.54166666666</v>
       </c>
       <c r="B128" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C128" t="n">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="D128" t="n">
         <v>209.9</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45875.83333333334</v>
+        <v>45877.83333333334</v>
       </c>
       <c r="B129" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C129" t="n">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="D129" t="n">
         <v>209.9</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45875.99930555555</v>
+        <v>45877.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C130" t="n">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D130" t="n">
         <v>209.9</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45876.54166666666</v>
+        <v>45878.54166666666</v>
       </c>
       <c r="B131" t="n">
-        <v>170</v>
+        <v>186.98</v>
       </c>
       <c r="C131" t="n">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="D131" t="n">
         <v>209.9</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45876.83333333334</v>
+        <v>45878.83333333334</v>
       </c>
       <c r="B132" t="n">
-        <v>174.5</v>
+        <v>184.8</v>
       </c>
       <c r="C132" t="n">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D132" t="n">
         <v>209.9</v>
@@ -2680,13 +2680,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45876.99930555555</v>
+        <v>45878.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>174.5</v>
+        <v>184.8</v>
       </c>
       <c r="C133" t="n">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D133" t="n">
         <v>209.9</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45877.54166666666</v>
+        <v>45879.54166666666</v>
       </c>
       <c r="B134" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C134" t="n">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="D134" t="n">
         <v>209.9</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45877.83333333334</v>
+        <v>45879.83333333334</v>
       </c>
       <c r="B135" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C135" t="n">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="D135" t="n">
         <v>209.9</v>
@@ -2731,13 +2731,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45877.99930555555</v>
+        <v>45879.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C136" t="n">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="D136" t="n">
         <v>209.9</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45878.54166666666</v>
+        <v>45880.54166666666</v>
       </c>
       <c r="B137" t="n">
-        <v>186.98</v>
+        <v>182.9</v>
       </c>
       <c r="C137" t="n">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D137" t="n">
         <v>209.9</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45878.83333333334</v>
+        <v>45880.83333333334</v>
       </c>
       <c r="B138" t="n">
-        <v>184.8</v>
+        <v>189.98</v>
       </c>
       <c r="C138" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D138" t="n">
         <v>209.9</v>
@@ -2782,13 +2782,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45878.99930555555</v>
+        <v>45880.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>184.8</v>
+        <v>189.98</v>
       </c>
       <c r="C139" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D139" t="n">
         <v>209.9</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45879.54166666666</v>
+        <v>45881.54166666666</v>
       </c>
       <c r="B140" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C140" t="n">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D140" t="n">
         <v>209.9</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45879.83333333334</v>
+        <v>45881.83333333334</v>
       </c>
       <c r="B141" t="n">
-        <v>169</v>
+        <v>186.94</v>
       </c>
       <c r="C141" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D141" t="n">
         <v>209.9</v>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45879.99930555555</v>
+        <v>45881.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>169</v>
+        <v>185.44</v>
       </c>
       <c r="C142" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D142" t="n">
         <v>209.9</v>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45880.54166666666</v>
+        <v>45882.54166666666</v>
       </c>
       <c r="B143" t="n">
-        <v>182.9</v>
+        <v>183.9</v>
       </c>
       <c r="C143" t="n">
-        <v>271</v>
+        <v>460</v>
       </c>
       <c r="D143" t="n">
         <v>209.9</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45880.83333333334</v>
+        <v>45882.83333333334</v>
       </c>
       <c r="B144" t="n">
-        <v>189.98</v>
+        <v>187.45</v>
       </c>
       <c r="C144" t="n">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="D144" t="n">
         <v>209.9</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45880.99930555555</v>
+        <v>45882.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>189.98</v>
+        <v>187.45</v>
       </c>
       <c r="C145" t="n">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="D145" t="n">
         <v>209.9</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45881.54166666666</v>
+        <v>45883.54166666666</v>
       </c>
       <c r="B146" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C146" t="n">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="D146" t="n">
         <v>209.9</v>
@@ -2918,13 +2918,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45881.83333333334</v>
+        <v>45883.83333333334</v>
       </c>
       <c r="B147" t="n">
-        <v>186.94</v>
+        <v>198</v>
       </c>
       <c r="C147" t="n">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="D147" t="n">
         <v>209.9</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45881.99930555555</v>
+        <v>45883.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>185.44</v>
+        <v>198</v>
       </c>
       <c r="C148" t="n">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="D148" t="n">
         <v>209.9</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45882.54166666666</v>
+        <v>45884.54166666666</v>
       </c>
       <c r="B149" t="n">
-        <v>183.9</v>
+        <v>225</v>
       </c>
       <c r="C149" t="n">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="D149" t="n">
-        <v>209.9</v>
+        <v>225</v>
       </c>
       <c r="E149" t="n">
         <v>6.13</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45882.83333333334</v>
+        <v>45884.83333333334</v>
       </c>
       <c r="B150" t="n">
-        <v>187.45</v>
+        <v>235</v>
       </c>
       <c r="C150" t="n">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="D150" t="n">
-        <v>209.9</v>
+        <v>243.5</v>
       </c>
       <c r="E150" t="n">
         <v>6.13</v>
@@ -2986,16 +2986,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45882.99930555555</v>
+        <v>45884.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>187.45</v>
+        <v>235</v>
       </c>
       <c r="C151" t="n">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="D151" t="n">
-        <v>209.9</v>
+        <v>243.5</v>
       </c>
       <c r="E151" t="n">
         <v>6.13</v>
@@ -3003,16 +3003,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45883.54166666666</v>
+        <v>45885.54166666666</v>
       </c>
       <c r="B152" t="n">
-        <v>197</v>
+        <v>244.5</v>
       </c>
       <c r="C152" t="n">
-        <v>358</v>
+        <v>163</v>
       </c>
       <c r="D152" t="n">
-        <v>209.9</v>
+        <v>244.5</v>
       </c>
       <c r="E152" t="n">
         <v>6.13</v>
@@ -3020,16 +3020,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45883.83333333334</v>
+        <v>45885.83333333334</v>
       </c>
       <c r="B153" t="n">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="C153" t="n">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="D153" t="n">
-        <v>209.9</v>
+        <v>255</v>
       </c>
       <c r="E153" t="n">
         <v>6.13</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>45883.99930555555</v>
+        <v>45885.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="C154" t="n">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="D154" t="n">
-        <v>209.9</v>
+        <v>255</v>
       </c>
       <c r="E154" t="n">
         <v>6.13</v>
@@ -3054,16 +3054,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>45884.54166666666</v>
+        <v>45886.54166666666</v>
       </c>
       <c r="B155" t="n">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C155" t="n">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D155" t="n">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="E155" t="n">
         <v>6.13</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>45884.83333333334</v>
+        <v>45886.83333333334</v>
       </c>
       <c r="B156" t="n">
-        <v>235</v>
+        <v>242.49</v>
       </c>
       <c r="C156" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D156" t="n">
-        <v>243.5</v>
+        <v>255</v>
       </c>
       <c r="E156" t="n">
         <v>6.13</v>
@@ -3088,16 +3088,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45884.99930555555</v>
+        <v>45886.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>235</v>
+        <v>242.49</v>
       </c>
       <c r="C157" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D157" t="n">
-        <v>243.5</v>
+        <v>255</v>
       </c>
       <c r="E157" t="n">
         <v>6.13</v>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45885.54166666666</v>
+        <v>45887.54166666666</v>
       </c>
       <c r="B158" t="n">
-        <v>244.5</v>
+        <v>250</v>
       </c>
       <c r="C158" t="n">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="D158" t="n">
-        <v>244.5</v>
+        <v>255</v>
       </c>
       <c r="E158" t="n">
         <v>6.13</v>
@@ -3122,16 +3122,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45885.83333333334</v>
+        <v>45887.83333333334</v>
       </c>
       <c r="B159" t="n">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C159" t="n">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D159" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E159" t="n">
         <v>6.13</v>
@@ -3139,16 +3139,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45885.99930555555</v>
+        <v>45887.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C160" t="n">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D160" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E160" t="n">
         <v>6.13</v>
@@ -3156,16 +3156,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45886.54166666666</v>
+        <v>45888.54166666666</v>
       </c>
       <c r="B161" t="n">
-        <v>239</v>
+        <v>267.49</v>
       </c>
       <c r="C161" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D161" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E161" t="n">
         <v>6.13</v>
@@ -3173,16 +3173,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45886.83333333334</v>
+        <v>45888.83333333334</v>
       </c>
       <c r="B162" t="n">
-        <v>242.49</v>
+        <v>275</v>
       </c>
       <c r="C162" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="D162" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E162" t="n">
         <v>6.13</v>
@@ -3190,16 +3190,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45886.99930555555</v>
+        <v>45888.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>242.49</v>
+        <v>278.38</v>
       </c>
       <c r="C163" t="n">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="D163" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E163" t="n">
         <v>6.13</v>
@@ -3207,16 +3207,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45887.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
       <c r="B164" t="n">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="C164" t="n">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D164" t="n">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E164" t="n">
         <v>6.13</v>
@@ -3224,16 +3224,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45887.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
       <c r="B165" t="n">
-        <v>283</v>
+        <v>288.5</v>
       </c>
       <c r="C165" t="n">
         <v>109</v>
       </c>
       <c r="D165" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E165" t="n">
         <v>6.13</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45887.99930555555</v>
+        <v>45889.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>283</v>
+        <v>288.5</v>
       </c>
       <c r="C166" t="n">
         <v>109</v>
       </c>
       <c r="D166" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E166" t="n">
         <v>6.13</v>
@@ -3258,16 +3258,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45888.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
       <c r="B167" t="n">
-        <v>267.49</v>
+        <v>286</v>
       </c>
       <c r="C167" t="n">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D167" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E167" t="n">
         <v>6.13</v>
@@ -3275,16 +3275,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45888.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
       <c r="B168" t="n">
-        <v>275</v>
+        <v>317.5</v>
       </c>
       <c r="C168" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D168" t="n">
-        <v>283</v>
+        <v>317.5</v>
       </c>
       <c r="E168" t="n">
         <v>6.13</v>
@@ -3292,16 +3292,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45888.99930555555</v>
+        <v>45890.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>278.38</v>
+        <v>317.5</v>
       </c>
       <c r="C169" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D169" t="n">
-        <v>283</v>
+        <v>317.5</v>
       </c>
       <c r="E169" t="n">
         <v>6.13</v>
@@ -3309,16 +3309,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45889.54166666666</v>
+        <v>45891.54166666666</v>
       </c>
       <c r="B170" t="n">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="C170" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D170" t="n">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="E170" t="n">
         <v>6.13</v>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>45889.83333333334</v>
+        <v>45891.83333333334</v>
       </c>
       <c r="B171" t="n">
-        <v>288.5</v>
+        <v>410</v>
       </c>
       <c r="C171" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D171" t="n">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="E171" t="n">
         <v>6.13</v>
@@ -3343,16 +3343,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>45889.99930555555</v>
+        <v>45891.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>288.5</v>
+        <v>410</v>
       </c>
       <c r="C172" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D172" t="n">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="E172" t="n">
         <v>6.13</v>
@@ -3360,16 +3360,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>45890.54166666666</v>
+        <v>45892.54166666666</v>
       </c>
       <c r="B173" t="n">
-        <v>286</v>
+        <v>414</v>
       </c>
       <c r="C173" t="n">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D173" t="n">
-        <v>296</v>
+        <v>416.5</v>
       </c>
       <c r="E173" t="n">
         <v>6.13</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>45890.83333333334</v>
+        <v>45892.83333333334</v>
       </c>
       <c r="B174" t="n">
-        <v>317.5</v>
+        <v>415</v>
       </c>
       <c r="C174" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D174" t="n">
-        <v>317.5</v>
+        <v>420</v>
       </c>
       <c r="E174" t="n">
         <v>6.13</v>
@@ -3394,16 +3394,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>45890.99930555555</v>
+        <v>45892.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>317.5</v>
+        <v>415</v>
       </c>
       <c r="C175" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D175" t="n">
-        <v>317.5</v>
+        <v>420</v>
       </c>
       <c r="E175" t="n">
         <v>6.13</v>
@@ -3411,16 +3411,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>45891.54166666666</v>
+        <v>45893.54166666666</v>
       </c>
       <c r="B176" t="n">
-        <v>349</v>
+        <v>500</v>
       </c>
       <c r="C176" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D176" t="n">
-        <v>349</v>
+        <v>500</v>
       </c>
       <c r="E176" t="n">
         <v>6.13</v>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45891.83333333334</v>
+        <v>45893.83333333334</v>
       </c>
       <c r="B177" t="n">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="C177" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D177" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="E177" t="n">
         <v>6.13</v>
@@ -3445,16 +3445,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45891.99930555555</v>
+        <v>45893.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="C178" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D178" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="E178" t="n">
         <v>6.13</v>
@@ -3462,16 +3462,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45892.54166666666</v>
+        <v>45894.54166666666</v>
       </c>
       <c r="B179" t="n">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="C179" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D179" t="n">
-        <v>416.5</v>
+        <v>500</v>
       </c>
       <c r="E179" t="n">
         <v>6.13</v>
@@ -3479,16 +3479,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45892.83333333334</v>
+        <v>45894.83333333334</v>
       </c>
       <c r="B180" t="n">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="C180" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D180" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="E180" t="n">
         <v>6.13</v>
@@ -3496,16 +3496,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45892.99930555555</v>
+        <v>45894.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="C181" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D181" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="E181" t="n">
         <v>6.13</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>45893.54166666666</v>
+        <v>45895.54166666666</v>
       </c>
       <c r="B182" t="n">
-        <v>500</v>
+        <v>495.8</v>
       </c>
       <c r="C182" t="n">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D182" t="n">
         <v>500</v>
@@ -3530,13 +3530,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>45893.83333333334</v>
+        <v>45895.83333333334</v>
       </c>
       <c r="B183" t="n">
-        <v>490</v>
+        <v>484.5</v>
       </c>
       <c r="C183" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D183" t="n">
         <v>500</v>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>45893.99930555555</v>
+        <v>45895.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>490</v>
+        <v>484.5</v>
       </c>
       <c r="C184" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D184" t="n">
         <v>500</v>
@@ -3564,13 +3564,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>45894.54166666666</v>
+        <v>45896.54166666666</v>
       </c>
       <c r="B185" t="n">
-        <v>493</v>
+        <v>477.85</v>
       </c>
       <c r="C185" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D185" t="n">
         <v>500</v>
@@ -3581,16 +3581,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>45894.83333333334</v>
+        <v>45896.83333333334</v>
       </c>
       <c r="B186" t="n">
-        <v>488</v>
+        <v>512.33</v>
       </c>
       <c r="C186" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D186" t="n">
-        <v>500</v>
+        <v>512.33</v>
       </c>
       <c r="E186" t="n">
         <v>6.13</v>
@@ -3598,16 +3598,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>45894.99930555555</v>
+        <v>45896.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>488</v>
+        <v>512.33</v>
       </c>
       <c r="C187" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D187" t="n">
-        <v>500</v>
+        <v>512.33</v>
       </c>
       <c r="E187" t="n">
         <v>6.13</v>
@@ -3615,16 +3615,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>45895.54166666666</v>
+        <v>45897.54166666666</v>
       </c>
       <c r="B188" t="n">
-        <v>495.8</v>
+        <v>490</v>
       </c>
       <c r="C188" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D188" t="n">
-        <v>500</v>
+        <v>515.5</v>
       </c>
       <c r="E188" t="n">
         <v>6.13</v>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>45895.83333333334</v>
+        <v>45897.83333333334</v>
       </c>
       <c r="B189" t="n">
-        <v>484.5</v>
+        <v>499</v>
       </c>
       <c r="C189" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D189" t="n">
-        <v>500</v>
+        <v>515.5</v>
       </c>
       <c r="E189" t="n">
         <v>6.13</v>
@@ -3649,16 +3649,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>45895.99930555555</v>
+        <v>45897.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>484.5</v>
+        <v>499</v>
       </c>
       <c r="C190" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D190" t="n">
-        <v>500</v>
+        <v>515.5</v>
       </c>
       <c r="E190" t="n">
         <v>6.13</v>
@@ -3666,16 +3666,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>45896.54166666666</v>
+        <v>45898.54166666666</v>
       </c>
       <c r="B191" t="n">
-        <v>477.85</v>
+        <v>502</v>
       </c>
       <c r="C191" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D191" t="n">
-        <v>500</v>
+        <v>515.5</v>
       </c>
       <c r="E191" t="n">
         <v>6.13</v>
@@ -3683,16 +3683,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>45896.83333333334</v>
+        <v>45898.83333333334</v>
       </c>
       <c r="B192" t="n">
-        <v>512.33</v>
+        <v>510</v>
       </c>
       <c r="C192" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D192" t="n">
-        <v>512.33</v>
+        <v>515.5</v>
       </c>
       <c r="E192" t="n">
         <v>6.13</v>
@@ -3700,16 +3700,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>45896.99930555555</v>
+        <v>45898.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>512.33</v>
+        <v>510</v>
       </c>
       <c r="C193" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D193" t="n">
-        <v>512.33</v>
+        <v>515.5</v>
       </c>
       <c r="E193" t="n">
         <v>6.13</v>
@@ -3717,13 +3717,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>45897.54166666666</v>
+        <v>45899.54166666666</v>
       </c>
       <c r="B194" t="n">
-        <v>490</v>
+        <v>498.48</v>
       </c>
       <c r="C194" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D194" t="n">
         <v>515.5</v>
@@ -3734,16 +3734,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>45897.83333333334</v>
+        <v>45899.83333333334</v>
       </c>
       <c r="B195" t="n">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="C195" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D195" t="n">
-        <v>515.5</v>
+        <v>534</v>
       </c>
       <c r="E195" t="n">
         <v>6.13</v>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>45897.99930555555</v>
+        <v>45899.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="C196" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D196" t="n">
-        <v>515.5</v>
+        <v>534</v>
       </c>
       <c r="E196" t="n">
         <v>6.13</v>
@@ -3768,16 +3768,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>45898.54166666666</v>
+        <v>45900.54166666666</v>
       </c>
       <c r="B197" t="n">
-        <v>502</v>
+        <v>664</v>
       </c>
       <c r="C197" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D197" t="n">
-        <v>515.5</v>
+        <v>664</v>
       </c>
       <c r="E197" t="n">
         <v>6.13</v>
@@ -3785,16 +3785,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>45898.83333333334</v>
+        <v>45900.83333333334</v>
       </c>
       <c r="B198" t="n">
-        <v>510</v>
+        <v>770</v>
       </c>
       <c r="C198" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D198" t="n">
-        <v>515.5</v>
+        <v>791</v>
       </c>
       <c r="E198" t="n">
         <v>6.13</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>45898.99930555555</v>
+        <v>45900.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>510</v>
+        <v>770</v>
       </c>
       <c r="C199" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D199" t="n">
-        <v>515.5</v>
+        <v>791</v>
       </c>
       <c r="E199" t="n">
         <v>6.13</v>
@@ -3819,16 +3819,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>45899.54166666666</v>
+        <v>45901.54166666666</v>
       </c>
       <c r="B200" t="n">
-        <v>498.48</v>
+        <v>779.99</v>
       </c>
       <c r="C200" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="D200" t="n">
-        <v>515.5</v>
+        <v>791</v>
       </c>
       <c r="E200" t="n">
         <v>6.13</v>
@@ -3836,16 +3836,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>45899.83333333334</v>
+        <v>45901.83333333334</v>
       </c>
       <c r="B201" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="C201" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D201" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="E201" t="n">
         <v>6.13</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>45899.99930555555</v>
+        <v>45901.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="C202" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D202" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="E202" t="n">
         <v>6.13</v>
@@ -3870,16 +3870,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>45900.54166666666</v>
+        <v>45902.54166666666</v>
       </c>
       <c r="B203" t="n">
-        <v>664</v>
+        <v>875</v>
       </c>
       <c r="C203" t="n">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D203" t="n">
-        <v>664</v>
+        <v>875</v>
       </c>
       <c r="E203" t="n">
         <v>6.13</v>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>45900.83333333334</v>
+        <v>45902.83333333334</v>
       </c>
       <c r="B204" t="n">
-        <v>770</v>
+        <v>849.99</v>
       </c>
       <c r="C204" t="n">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D204" t="n">
-        <v>791</v>
+        <v>875</v>
       </c>
       <c r="E204" t="n">
         <v>6.13</v>
@@ -3904,16 +3904,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>45900.99930555555</v>
+        <v>45902.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>770</v>
+        <v>849.99</v>
       </c>
       <c r="C205" t="n">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D205" t="n">
-        <v>791</v>
+        <v>875</v>
       </c>
       <c r="E205" t="n">
         <v>6.13</v>
@@ -3921,16 +3921,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45901.54166666666</v>
+        <v>45903.54166666666</v>
       </c>
       <c r="B206" t="n">
-        <v>779.99</v>
+        <v>840</v>
       </c>
       <c r="C206" t="n">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D206" t="n">
-        <v>791</v>
+        <v>875</v>
       </c>
       <c r="E206" t="n">
         <v>6.13</v>
@@ -3938,16 +3938,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>45901.83333333334</v>
+        <v>45903.83333333334</v>
       </c>
       <c r="B207" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C207" t="n">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D207" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="E207" t="n">
         <v>6.13</v>
@@ -3955,16 +3955,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>45901.99930555555</v>
+        <v>45903.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C208" t="n">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D208" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="E208" t="n">
         <v>6.13</v>
@@ -3972,13 +3972,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>45902.54166666666</v>
+        <v>45904.54166666666</v>
       </c>
       <c r="B209" t="n">
-        <v>875</v>
+        <v>834.49</v>
       </c>
       <c r="C209" t="n">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="D209" t="n">
         <v>875</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>45902.83333333334</v>
+        <v>45904.83333333334</v>
       </c>
       <c r="B210" t="n">
-        <v>849.99</v>
+        <v>832.5</v>
       </c>
       <c r="C210" t="n">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D210" t="n">
         <v>875</v>
@@ -4006,13 +4006,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>45902.99930555555</v>
+        <v>45904.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>849.99</v>
+        <v>833</v>
       </c>
       <c r="C211" t="n">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D211" t="n">
         <v>875</v>
@@ -4023,13 +4023,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>45903.54166666666</v>
+        <v>45905.54166666666</v>
       </c>
       <c r="B212" t="n">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="C212" t="n">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D212" t="n">
         <v>875</v>
@@ -4040,16 +4040,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>45903.83333333334</v>
+        <v>45905.83333333334</v>
       </c>
       <c r="B213" t="n">
-        <v>845</v>
+        <v>914</v>
       </c>
       <c r="C213" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D213" t="n">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="E213" t="n">
         <v>6.13</v>
@@ -4057,16 +4057,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>45903.99930555555</v>
+        <v>45905.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>845</v>
+        <v>914</v>
       </c>
       <c r="C214" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D214" t="n">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="E214" t="n">
         <v>6.13</v>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>45904.54166666666</v>
+        <v>45906.54166666666</v>
       </c>
       <c r="B215" t="n">
-        <v>834.49</v>
+        <v>904</v>
       </c>
       <c r="C215" t="n">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D215" t="n">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="E215" t="n">
         <v>6.13</v>
@@ -4091,16 +4091,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>45904.83333333334</v>
+        <v>45906.83333333334</v>
       </c>
       <c r="B216" t="n">
-        <v>832.5</v>
+        <v>920</v>
       </c>
       <c r="C216" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="D216" t="n">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c r="E216" t="n">
         <v>6.13</v>
@@ -4108,16 +4108,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>45904.99930555555</v>
+        <v>45906.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>833</v>
+        <v>920</v>
       </c>
       <c r="C217" t="n">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D217" t="n">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c r="E217" t="n">
         <v>6.13</v>
@@ -4125,16 +4125,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>45905.54166666666</v>
+        <v>45907.54166666666</v>
       </c>
       <c r="B218" t="n">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="C218" t="n">
         <v>154</v>
       </c>
       <c r="D218" t="n">
-        <v>875</v>
+        <v>940</v>
       </c>
       <c r="E218" t="n">
         <v>6.13</v>
@@ -4142,16 +4142,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>45905.83333333334</v>
+        <v>45907.83333333334</v>
       </c>
       <c r="B219" t="n">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="C219" t="n">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D219" t="n">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="E219" t="n">
         <v>6.13</v>
@@ -4159,16 +4159,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>45905.99930555555</v>
+        <v>45907.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="C220" t="n">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D220" t="n">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="E220" t="n">
         <v>6.13</v>
@@ -4176,16 +4176,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>45906.54166666666</v>
+        <v>45908.54166666666</v>
       </c>
       <c r="B221" t="n">
-        <v>904</v>
+        <v>1100</v>
       </c>
       <c r="C221" t="n">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D221" t="n">
-        <v>914</v>
+        <v>1100</v>
       </c>
       <c r="E221" t="n">
         <v>6.13</v>
@@ -4193,16 +4193,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>45906.83333333334</v>
+        <v>45908.83333333334</v>
       </c>
       <c r="B222" t="n">
-        <v>920</v>
+        <v>1350</v>
       </c>
       <c r="C222" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D222" t="n">
-        <v>920</v>
+        <v>1350</v>
       </c>
       <c r="E222" t="n">
         <v>6.13</v>
@@ -4210,16 +4210,16 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>45906.99930555555</v>
+        <v>45908.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>920</v>
+        <v>1350</v>
       </c>
       <c r="C223" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D223" t="n">
-        <v>920</v>
+        <v>1350</v>
       </c>
       <c r="E223" t="n">
         <v>6.13</v>
@@ -4227,16 +4227,16 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>45907.54166666666</v>
+        <v>45909.54166666666</v>
       </c>
       <c r="B224" t="n">
-        <v>940</v>
+        <v>1799</v>
       </c>
       <c r="C224" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D224" t="n">
-        <v>940</v>
+        <v>1799</v>
       </c>
       <c r="E224" t="n">
         <v>6.13</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>45907.83333333334</v>
+        <v>45909.83333333334</v>
       </c>
       <c r="B225" t="n">
-        <v>925</v>
+        <v>2188</v>
       </c>
       <c r="C225" t="n">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D225" t="n">
-        <v>940</v>
+        <v>2188</v>
       </c>
       <c r="E225" t="n">
         <v>6.13</v>
@@ -4261,16 +4261,16 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>45907.99930555555</v>
+        <v>45909.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>925</v>
+        <v>2188</v>
       </c>
       <c r="C226" t="n">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D226" t="n">
-        <v>940</v>
+        <v>2188</v>
       </c>
       <c r="E226" t="n">
         <v>6.13</v>
@@ -4278,16 +4278,16 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>45908.54166666666</v>
+        <v>45910.54166666666</v>
       </c>
       <c r="B227" t="n">
-        <v>1100</v>
+        <v>2317</v>
       </c>
       <c r="C227" t="n">
-        <v>109</v>
+        <v>423</v>
       </c>
       <c r="D227" t="n">
-        <v>1100</v>
+        <v>2595</v>
       </c>
       <c r="E227" t="n">
         <v>6.13</v>
@@ -4295,16 +4295,16 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>45908.83333333334</v>
+        <v>45910.83333333334</v>
       </c>
       <c r="B228" t="n">
-        <v>1350</v>
+        <v>2349.5</v>
       </c>
       <c r="C228" t="n">
-        <v>122</v>
+        <v>460</v>
       </c>
       <c r="D228" t="n">
-        <v>1350</v>
+        <v>2595</v>
       </c>
       <c r="E228" t="n">
         <v>6.13</v>
@@ -4312,16 +4312,16 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>45908.99930555555</v>
+        <v>45910.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>1350</v>
+        <v>2349.5</v>
       </c>
       <c r="C229" t="n">
-        <v>122</v>
+        <v>460</v>
       </c>
       <c r="D229" t="n">
-        <v>1350</v>
+        <v>2595</v>
       </c>
       <c r="E229" t="n">
         <v>6.13</v>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>45909.54166666666</v>
+        <v>45911.54166666666</v>
       </c>
       <c r="B230" t="n">
-        <v>1799</v>
+        <v>2399.35</v>
       </c>
       <c r="C230" t="n">
-        <v>140</v>
+        <v>394</v>
       </c>
       <c r="D230" t="n">
-        <v>1799</v>
+        <v>2595</v>
       </c>
       <c r="E230" t="n">
         <v>6.13</v>
@@ -4346,16 +4346,16 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>45909.83333333334</v>
+        <v>45911.83333333334</v>
       </c>
       <c r="B231" t="n">
-        <v>2188</v>
+        <v>2499</v>
       </c>
       <c r="C231" t="n">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="D231" t="n">
-        <v>2188</v>
+        <v>2595</v>
       </c>
       <c r="E231" t="n">
         <v>6.13</v>
@@ -4363,16 +4363,16 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>45909.99930555555</v>
+        <v>45911.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2188</v>
+        <v>2499</v>
       </c>
       <c r="C232" t="n">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="D232" t="n">
-        <v>2188</v>
+        <v>2595</v>
       </c>
       <c r="E232" t="n">
         <v>6.13</v>
@@ -4380,16 +4380,16 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>45910.54166666666</v>
+        <v>45912.54166666666</v>
       </c>
       <c r="B233" t="n">
-        <v>2317</v>
+        <v>3249</v>
       </c>
       <c r="C233" t="n">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="D233" t="n">
-        <v>2595</v>
+        <v>3249</v>
       </c>
       <c r="E233" t="n">
         <v>6.13</v>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>45910.83333333334</v>
+        <v>45912.83333333334</v>
       </c>
       <c r="B234" t="n">
-        <v>2349.5</v>
+        <v>3198.5</v>
       </c>
       <c r="C234" t="n">
-        <v>460</v>
+        <v>294</v>
       </c>
       <c r="D234" t="n">
-        <v>2595</v>
+        <v>3280</v>
       </c>
       <c r="E234" t="n">
         <v>6.13</v>
@@ -4414,16 +4414,16 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>45910.99930555555</v>
+        <v>45912.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>2349.5</v>
+        <v>3198.5</v>
       </c>
       <c r="C235" t="n">
-        <v>460</v>
+        <v>294</v>
       </c>
       <c r="D235" t="n">
-        <v>2595</v>
+        <v>3280</v>
       </c>
       <c r="E235" t="n">
         <v>6.13</v>
@@ -4431,16 +4431,16 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>45911.54166666666</v>
+        <v>45913.54166666666</v>
       </c>
       <c r="B236" t="n">
-        <v>2399.35</v>
+        <v>2899.5</v>
       </c>
       <c r="C236" t="n">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="D236" t="n">
-        <v>2595</v>
+        <v>3300</v>
       </c>
       <c r="E236" t="n">
         <v>6.13</v>
@@ -4448,16 +4448,16 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>45911.83333333334</v>
+        <v>45913.83333333334</v>
       </c>
       <c r="B237" t="n">
-        <v>2499</v>
+        <v>2499.5</v>
       </c>
       <c r="C237" t="n">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D237" t="n">
-        <v>2595</v>
+        <v>3300</v>
       </c>
       <c r="E237" t="n">
         <v>6.13</v>
@@ -4465,16 +4465,16 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>45911.99930555555</v>
+        <v>45913.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>2499</v>
+        <v>2499.5</v>
       </c>
       <c r="C238" t="n">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="D238" t="n">
-        <v>2595</v>
+        <v>3300</v>
       </c>
       <c r="E238" t="n">
         <v>6.13</v>
@@ -4482,16 +4482,16 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>45912.54166666666</v>
+        <v>45914.54166666666</v>
       </c>
       <c r="B239" t="n">
-        <v>3249</v>
+        <v>2000</v>
       </c>
       <c r="C239" t="n">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="D239" t="n">
-        <v>3249</v>
+        <v>3300</v>
       </c>
       <c r="E239" t="n">
         <v>6.13</v>
@@ -4499,16 +4499,16 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>45912.83333333334</v>
+        <v>45914.83333333334</v>
       </c>
       <c r="B240" t="n">
-        <v>3198.5</v>
+        <v>1987.5</v>
       </c>
       <c r="C240" t="n">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D240" t="n">
-        <v>3280</v>
+        <v>3300</v>
       </c>
       <c r="E240" t="n">
         <v>6.13</v>
@@ -4516,16 +4516,16 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>45912.99930555555</v>
+        <v>45914.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3198.5</v>
+        <v>1987.5</v>
       </c>
       <c r="C241" t="n">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D241" t="n">
-        <v>3280</v>
+        <v>3300</v>
       </c>
       <c r="E241" t="n">
         <v>6.13</v>
@@ -4533,13 +4533,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>45913.54166666666</v>
+        <v>45915.54166666666</v>
       </c>
       <c r="B242" t="n">
-        <v>2899.5</v>
+        <v>319</v>
       </c>
       <c r="C242" t="n">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="D242" t="n">
         <v>3300</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>45913.83333333334</v>
+        <v>45915.83333333334</v>
       </c>
       <c r="B243" t="n">
-        <v>2499.5</v>
+        <v>186</v>
       </c>
       <c r="C243" t="n">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="D243" t="n">
         <v>3300</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>45913.99930555555</v>
+        <v>45915.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>2499.5</v>
+        <v>186</v>
       </c>
       <c r="C244" t="n">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="D244" t="n">
         <v>3300</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>45914.54166666666</v>
+        <v>45916.54166666666</v>
       </c>
       <c r="B245" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="C245" t="n">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="D245" t="n">
         <v>3300</v>
@@ -4601,13 +4601,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>45914.83333333334</v>
+        <v>45916.83333333334</v>
       </c>
       <c r="B246" t="n">
-        <v>1987.5</v>
+        <v>189</v>
       </c>
       <c r="C246" t="n">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="D246" t="n">
         <v>3300</v>
@@ -4618,13 +4618,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>45914.99930555555</v>
+        <v>45916.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>1987.5</v>
+        <v>189</v>
       </c>
       <c r="C247" t="n">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="D247" t="n">
         <v>3300</v>
@@ -4635,13 +4635,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>45915.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B248" t="n">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="C248" t="n">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D248" t="n">
         <v>3300</v>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>45915.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B249" t="n">
-        <v>186</v>
+        <v>178.88</v>
       </c>
       <c r="C249" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D249" t="n">
         <v>3300</v>
@@ -4669,13 +4669,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>45915.99930555555</v>
+        <v>45917.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>186</v>
+        <v>178.88</v>
       </c>
       <c r="C250" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D250" t="n">
         <v>3300</v>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>45916.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B251" t="n">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C251" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D251" t="n">
         <v>3300</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>45916.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B252" t="n">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C252" t="n">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="D252" t="n">
         <v>3300</v>
@@ -4720,13 +4720,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>45916.99930555555</v>
+        <v>45918.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>189</v>
+        <v>115.5</v>
       </c>
       <c r="C253" t="n">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="D253" t="n">
         <v>3300</v>
@@ -4737,13 +4737,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>45917.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B254" t="n">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C254" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D254" t="n">
         <v>3300</v>
@@ -4754,13 +4754,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>45917.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B255" t="n">
-        <v>178.88</v>
+        <v>159</v>
       </c>
       <c r="C255" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D255" t="n">
         <v>3300</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>45917.99930555555</v>
+        <v>45919.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>178.88</v>
+        <v>159</v>
       </c>
       <c r="C256" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D256" t="n">
         <v>3300</v>
@@ -4788,13 +4788,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>45918.54166666666</v>
+        <v>45920.54166666666</v>
       </c>
       <c r="B257" t="n">
-        <v>135</v>
+        <v>174.99</v>
       </c>
       <c r="C257" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D257" t="n">
         <v>3300</v>
@@ -4805,13 +4805,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>45918.83333333334</v>
+        <v>45920.83333333334</v>
       </c>
       <c r="B258" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C258" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D258" t="n">
         <v>3300</v>
@@ -4822,13 +4822,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>45918.99930555555</v>
+        <v>45920.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>115.5</v>
+        <v>165</v>
       </c>
       <c r="C259" t="n">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D259" t="n">
         <v>3300</v>
@@ -4839,13 +4839,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>45919.54166666666</v>
+        <v>45921.54166666666</v>
       </c>
       <c r="B260" t="n">
-        <v>169</v>
+        <v>154.5</v>
       </c>
       <c r="C260" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D260" t="n">
         <v>3300</v>
@@ -4856,13 +4856,13 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>45919.83333333334</v>
+        <v>45921.83333333334</v>
       </c>
       <c r="B261" t="n">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C261" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D261" t="n">
         <v>3300</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>45919.99930555555</v>
+        <v>45921.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C262" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D262" t="n">
         <v>3300</v>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>45920.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B263" t="n">
-        <v>174.99</v>
+        <v>132</v>
       </c>
       <c r="C263" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D263" t="n">
         <v>3300</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>45920.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B264" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C264" t="n">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="D264" t="n">
         <v>3300</v>
@@ -4924,13 +4924,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>45920.99930555555</v>
+        <v>45922.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C265" t="n">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="D265" t="n">
         <v>3300</v>
@@ -4941,13 +4941,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>45921.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B266" t="n">
-        <v>154.5</v>
+        <v>87.8</v>
       </c>
       <c r="C266" t="n">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="D266" t="n">
         <v>3300</v>
@@ -4958,13 +4958,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>45921.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B267" t="n">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C267" t="n">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="D267" t="n">
         <v>3300</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>45921.99930555555</v>
+        <v>45923.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C268" t="n">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="D268" t="n">
         <v>3300</v>
@@ -4992,13 +4992,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>45922.54166666666</v>
+        <v>45924.54166666666</v>
       </c>
       <c r="B269" t="n">
-        <v>132</v>
+        <v>65.3</v>
       </c>
       <c r="C269" t="n">
-        <v>264</v>
+        <v>559</v>
       </c>
       <c r="D269" t="n">
         <v>3300</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>45922.83333333334</v>
+        <v>45924.83333333334</v>
       </c>
       <c r="B270" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C270" t="n">
-        <v>368</v>
+        <v>578</v>
       </c>
       <c r="D270" t="n">
         <v>3300</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>45922.99930555555</v>
+        <v>45924.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C271" t="n">
-        <v>368</v>
+        <v>553</v>
       </c>
       <c r="D271" t="n">
         <v>3300</v>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>45923.54166666666</v>
+        <v>45925.54166666666</v>
       </c>
       <c r="B272" t="n">
-        <v>95.88</v>
+        <v>64.8</v>
       </c>
       <c r="C272" t="n">
-        <v>372</v>
+        <v>580</v>
       </c>
       <c r="D272" t="n">
         <v>3300</v>
@@ -5060,35 +5060,18 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>45923.83333333334</v>
+        <v>45925.83333333334</v>
       </c>
       <c r="B273" t="n">
-        <v>79</v>
+        <v>88.88</v>
       </c>
       <c r="C273" t="n">
-        <v>475</v>
+        <v>610</v>
       </c>
       <c r="D273" t="n">
         <v>3300</v>
       </c>
       <c r="E273" t="n">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>45923.99930555555</v>
-      </c>
-      <c r="B274" t="n">
-        <v>78</v>
-      </c>
-      <c r="C274" t="n">
-        <v>449</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E274" t="n">
         <v>6.13</v>
       </c>
     </row>
